--- a/Civilworks cost/IPC Distribution Result/2019-20/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution Result/2019-20/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-60" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="-60" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,6 +1020,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1146,6 +1152,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2587,9 +2604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4759,78 +4776,78 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
+      <c r="A57" s="36">
         <v>56</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24">
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37">
         <v>3582351.46</v>
       </c>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24">
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37">
         <v>447794</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="37">
         <v>3134557</v>
       </c>
-      <c r="Q57" s="19" t="s">
+      <c r="Q57" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="R57" s="18">
+      <c r="R57" s="36">
         <v>6</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="A58" s="36">
         <v>57</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24">
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37">
+        <v>3457479.39</v>
+      </c>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37">
         <v>3940433.72</v>
       </c>
-      <c r="K58" s="24">
-        <v>3457479.39</v>
-      </c>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24">
+      <c r="K58" s="38"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37">
         <v>924739</v>
       </c>
-      <c r="P58" s="24">
+      <c r="P58" s="37">
         <v>6473174</v>
       </c>
-      <c r="Q58" s="19" t="s">
+      <c r="Q58" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="R58" s="18">
+      <c r="R58" s="36">
         <v>5</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S58" s="38">
         <v>5</v>
       </c>
     </row>
@@ -4982,40 +4999,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="18">
+    <row r="63" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36">
         <v>62</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24">
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37">
         <v>3421028.06</v>
       </c>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24">
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37">
         <v>427629</v>
       </c>
-      <c r="P63" s="24">
+      <c r="P63" s="37">
         <v>2993399</v>
       </c>
-      <c r="Q63" s="19" t="s">
+      <c r="Q63" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="R63" s="18">
+      <c r="R63" s="36">
         <v>3</v>
       </c>
-      <c r="S63" s="6">
+      <c r="S63" s="38">
         <v>5</v>
       </c>
     </row>
@@ -5362,44 +5378,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
+    <row r="73" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36">
         <v>72</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24">
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37">
         <v>9258302.8699999992</v>
       </c>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24">
+      <c r="F73" s="37">
+        <v>203113.3</v>
+      </c>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37">
         <v>544818.16</v>
       </c>
-      <c r="K73" s="24">
-        <v>203113.3</v>
-      </c>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24">
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37">
         <v>1250779</v>
       </c>
-      <c r="P73" s="24">
+      <c r="P73" s="37">
         <v>8755455</v>
       </c>
-      <c r="Q73" s="19" t="s">
+      <c r="Q73" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="R73" s="18">
+      <c r="R73" s="36">
         <v>5</v>
       </c>
-      <c r="S73" s="6">
+      <c r="S73" s="38">
         <v>6</v>
       </c>
     </row>
@@ -5748,40 +5763,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="18">
+    <row r="83" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36">
         <v>82</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24">
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37">
         <v>20162366.32</v>
       </c>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24">
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37">
         <v>2520296</v>
       </c>
-      <c r="P83" s="24">
+      <c r="P83" s="37">
         <v>17642070</v>
       </c>
-      <c r="Q83" s="19" t="s">
+      <c r="Q83" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="R83" s="18">
+      <c r="R83" s="36">
         <v>3</v>
       </c>
-      <c r="S83" s="6">
+      <c r="S83" s="38">
         <v>6</v>
       </c>
     </row>
@@ -5974,116 +5988,116 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="18">
+    <row r="89" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36">
         <v>88</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24">
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37">
         <v>21434033</v>
       </c>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24">
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37">
         <v>2602548</v>
       </c>
-      <c r="P89" s="24">
+      <c r="P89" s="37">
         <v>18217838</v>
       </c>
-      <c r="Q89" s="19" t="s">
+      <c r="Q89" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="R89" s="18">
+      <c r="R89" s="36">
         <v>5</v>
       </c>
-      <c r="S89" s="6">
+      <c r="S89" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="18">
+    <row r="90" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="36">
         <v>89</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24">
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37">
+        <v>3950811.1020000004</v>
+      </c>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37">
         <v>1869271.878</v>
       </c>
-      <c r="K90" s="24">
-        <v>3950811.1020000004</v>
-      </c>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24">
+      <c r="K90" s="38"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37">
         <v>711031</v>
       </c>
-      <c r="P90" s="24">
+      <c r="P90" s="37">
         <v>4977219</v>
       </c>
-      <c r="Q90" s="19" t="s">
+      <c r="Q90" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="R90" s="18">
+      <c r="R90" s="36">
         <v>6</v>
       </c>
-      <c r="S90" s="6">
+      <c r="S90" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="18">
+    <row r="91" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="36">
         <v>90</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24">
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37">
         <v>3715423</v>
       </c>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="24">
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37">
         <v>464428</v>
       </c>
-      <c r="P91" s="24">
+      <c r="P91" s="37">
         <v>3250995</v>
       </c>
-      <c r="Q91" s="19" t="s">
+      <c r="Q91" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="R91" s="18">
+      <c r="R91" s="36">
         <v>8</v>
       </c>
-      <c r="S91" s="6">
+      <c r="S91" s="38">
         <v>6</v>
       </c>
     </row>
@@ -6317,44 +6331,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="18">
+    <row r="98" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="36">
         <v>97</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24">
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37">
+        <v>1831376.254</v>
+      </c>
+      <c r="F98" s="37">
         <v>1360415.54</v>
       </c>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24">
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37">
         <v>455742.37</v>
       </c>
-      <c r="K98" s="24">
-        <v>1831376.254</v>
-      </c>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="24">
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37">
         <v>455942</v>
       </c>
-      <c r="P98" s="24">
+      <c r="P98" s="37">
         <v>3191592</v>
       </c>
-      <c r="Q98" s="19" t="s">
+      <c r="Q98" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="R98" s="18">
+      <c r="R98" s="36">
         <v>7</v>
       </c>
-      <c r="S98" s="6">
+      <c r="S98" s="38">
         <v>6</v>
       </c>
     </row>
@@ -8895,7 +8908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/Civilworks cost/IPC Distribution Result/2019-20/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution Result/2019-20/IPC Distribution.xlsx
@@ -2604,9 +2604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6424,7 +6424,7 @@
       <c r="G100" s="24"/>
       <c r="H100" s="24"/>
       <c r="I100" s="24"/>
-      <c r="J100" s="24">
+      <c r="J100" s="26">
         <v>3499306</v>
       </c>
       <c r="K100" s="24"/>
